--- a/Consegna/DataEuroStock_Tecnology.xlsx
+++ b/Consegna/DataEuroStock_Tecnology.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forni\Desktop\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forni\Desktop\Consegna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD277F-2C55-40E6-BC03-CBB443CB072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85031074-7562-4C95-AB3B-6BA1A44B17F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{52D34FB9-8F80-42E8-A7BC-569F6F5947D9}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{52D34FB9-8F80-42E8-A7BC-569F6F5947D9}"/>
   </bookViews>
   <sheets>
     <sheet name="EUROSTOXX600" sheetId="2" r:id="rId1"/>
     <sheet name="EURIBOR_3_M" sheetId="3" r:id="rId2"/>
     <sheet name="Constituens" sheetId="5" r:id="rId3"/>
     <sheet name="Subset" sheetId="6" r:id="rId4"/>
-    <sheet name="BUND" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -135,32 +134,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Forni riccardo</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7AA57E8C-D504-4D4E-80AA-CA711CB68E0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>=DSGRID("TRBD3MT"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>BD INTEREST RATES - EURIBOR RATE - 3 MONTH NADJ</t>
   </si>
@@ -263,9 +238,6 @@
   <si>
     <t>STMICROELECTRONICS (MIL) - TOT RETURN IND</t>
   </si>
-  <si>
-    <t>RF GERMANY GVT BMK BID YLD 3M - RED. YIELD</t>
-  </si>
 </sst>
 </file>
 
@@ -342,39 +314,32 @@
   <volType type="realTimeData">
     <main first="refinitivshim.rtdserver.dsgrid">
       <tp t="s">
-        <v>Name</v>
+        <v>Not Signed In</v>
+        <stp/>
+        <stp>5</stp>
+        <stp>746556375</stp>
+        <tr r="A1" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>Not Signed In</v>
         <stp/>
         <stp>4</stp>
-        <stp>277460953</stp>
+        <stp>746556375</stp>
         <tr r="A1" s="2"/>
       </tp>
       <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>5</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="3"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>2</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
+        <v>Not Signed In</v>
         <stp/>
         <stp>3</stp>
-        <stp>277460953</stp>
+        <stp>746556375</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>Name</v>
+        <v>Not Signed In</v>
         <stp/>
-        <stp>1</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="7"/>
+        <stp>2</stp>
+        <stp>746556375</stp>
+        <tr r="A1" s="6"/>
       </tp>
     </main>
   </volType>
@@ -690,7 +655,7 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xll.DSGRID("DJSTOXX","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+        <v>Not Signed In</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1693,7 +1658,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xll.DSGRID("BDSU0316R"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+        <v>Not Signed In</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2691,7 +2656,7 @@
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xll.DSGRID("H:ASML,H:PROS,F:DSY,E:AMS,H:ASIN,F:CAP,W:EKBF,AUTO,H:TKWY,S:LOGN,N:NOD,SGE,D:SAPX,D:AIXAX,F:ALTE,S:AMS,H:BESI,D:BC8X,CCC,W:FORT,D:IFXX,W:LAGR,D:NEMX,I:REY,D:G24X,SCT,F:SOI,F:SOP,D:TMVX,S:TEMN,M:TIE1,I:STM","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+        <v>Not Signed In</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -14277,7 +14242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683F7F78-13CE-4682-A262-7A36923A34E7}">
   <dimension ref="A1:CM122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -14289,7 +14254,7 @@
     <row r="1" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xll.DSGRID("F:CAP,M:TIE1,S:LOGN,W:EKBF,SGE,F:SOP,H:ASML,H:BESI,N:NOD,F:DSY,H:ASIN,D:SAPX,CCC,I:STM,D:AIXAX,F:ALTE,F:SOI,D:NEMX,D:IFXX,D:BC8X,I:REY,S:TEMN,W:LAGR,S:AMS,E:AMS,W:FORT","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+        <v>Not Signed In</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -24484,1004 +24449,4 @@
   </customProperties>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55AF48A-25A2-4815-B28C-927011504988}">
-  <dimension ref="A1:D122"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("TRBD3MT"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>41547</v>
-      </c>
-      <c r="B2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>41578</v>
-      </c>
-      <c r="B3">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>41607</v>
-      </c>
-      <c r="B4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>41639</v>
-      </c>
-      <c r="B5">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>41670</v>
-      </c>
-      <c r="B6">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>41698</v>
-      </c>
-      <c r="B7">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>41729</v>
-      </c>
-      <c r="B8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>41759</v>
-      </c>
-      <c r="B9">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>41789</v>
-      </c>
-      <c r="B10">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>41820</v>
-      </c>
-      <c r="B11">
-        <v>-2.7E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>41851</v>
-      </c>
-      <c r="B12">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>41880</v>
-      </c>
-      <c r="B13">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>41912</v>
-      </c>
-      <c r="B14">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>41943</v>
-      </c>
-      <c r="B15">
-        <v>-0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>41971</v>
-      </c>
-      <c r="B16">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>42004</v>
-      </c>
-      <c r="B17">
-        <v>-0.252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>42034</v>
-      </c>
-      <c r="B18">
-        <v>-0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>42062</v>
-      </c>
-      <c r="B19">
-        <v>-0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>42094</v>
-      </c>
-      <c r="B20">
-        <v>-0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>42124</v>
-      </c>
-      <c r="B21">
-        <v>-0.372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>42153</v>
-      </c>
-      <c r="B22">
-        <v>-0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>42185</v>
-      </c>
-      <c r="B23">
-        <v>-0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>42216</v>
-      </c>
-      <c r="B24">
-        <v>-0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>42247</v>
-      </c>
-      <c r="B25">
-        <v>-0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>42277</v>
-      </c>
-      <c r="B26">
-        <v>-0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>42307</v>
-      </c>
-      <c r="B27">
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B28">
-        <v>-0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>42369</v>
-      </c>
-      <c r="B29">
-        <v>-0.60399999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B30">
-        <v>-0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>42429</v>
-      </c>
-      <c r="B31">
-        <v>-0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B32">
-        <v>-0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>42489</v>
-      </c>
-      <c r="B33">
-        <v>-0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>42521</v>
-      </c>
-      <c r="B34">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>42551</v>
-      </c>
-      <c r="B35">
-        <v>-0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>42580</v>
-      </c>
-      <c r="B36">
-        <v>-0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>42613</v>
-      </c>
-      <c r="B37">
-        <v>-0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>42643</v>
-      </c>
-      <c r="B38">
-        <v>-0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>42674</v>
-      </c>
-      <c r="B39">
-        <v>-0.749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>42704</v>
-      </c>
-      <c r="B40">
-        <v>-0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>42734</v>
-      </c>
-      <c r="B41">
-        <v>-0.93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>42766</v>
-      </c>
-      <c r="B42">
-        <v>-0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>42794</v>
-      </c>
-      <c r="B43">
-        <v>-0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>42825</v>
-      </c>
-      <c r="B44">
-        <v>-0.88400000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>42853</v>
-      </c>
-      <c r="B45">
-        <v>-0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>42886</v>
-      </c>
-      <c r="B46">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>42916</v>
-      </c>
-      <c r="B47">
-        <v>-0.747</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>42947</v>
-      </c>
-      <c r="B48">
-        <v>-0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>42978</v>
-      </c>
-      <c r="B49">
-        <v>-0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>43007</v>
-      </c>
-      <c r="B50">
-        <v>-0.73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>43039</v>
-      </c>
-      <c r="B51">
-        <v>-0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>43069</v>
-      </c>
-      <c r="B52">
-        <v>-0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>43098</v>
-      </c>
-      <c r="B53">
-        <v>-0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>43131</v>
-      </c>
-      <c r="B54">
-        <v>-0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>43159</v>
-      </c>
-      <c r="B55">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>43189</v>
-      </c>
-      <c r="B56">
-        <v>-0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>43220</v>
-      </c>
-      <c r="B57">
-        <v>-0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>43251</v>
-      </c>
-      <c r="B58">
-        <v>-0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>43280</v>
-      </c>
-      <c r="B59">
-        <v>-0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>43312</v>
-      </c>
-      <c r="B60">
-        <v>-0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>43343</v>
-      </c>
-      <c r="B61">
-        <v>-0.58199999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>43371</v>
-      </c>
-      <c r="B62">
-        <v>-0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>43404</v>
-      </c>
-      <c r="B63">
-        <v>-0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>43434</v>
-      </c>
-      <c r="B64">
-        <v>-0.749</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>43465</v>
-      </c>
-      <c r="B65">
-        <v>-0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>43496</v>
-      </c>
-      <c r="B66">
-        <v>-0.54300000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>43524</v>
-      </c>
-      <c r="B67">
-        <v>-0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>43553</v>
-      </c>
-      <c r="B68">
-        <v>-0.54300000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>43585</v>
-      </c>
-      <c r="B69">
-        <v>-0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>43616</v>
-      </c>
-      <c r="B70">
-        <v>-0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>43644</v>
-      </c>
-      <c r="B71">
-        <v>-0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>43677</v>
-      </c>
-      <c r="B72">
-        <v>-0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>43707</v>
-      </c>
-      <c r="B73">
-        <v>-0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>43738</v>
-      </c>
-      <c r="B74">
-        <v>-0.57599999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>43769</v>
-      </c>
-      <c r="B75">
-        <v>-0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B76">
-        <v>-0.621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B77">
-        <v>-0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B78">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B79">
-        <v>-0.61599999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B80">
-        <v>-0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B81">
-        <v>-0.55200000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>43980</v>
-      </c>
-      <c r="B82">
-        <v>-0.504</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>44012</v>
-      </c>
-      <c r="B83">
-        <v>-0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B84">
-        <v>-0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>44074</v>
-      </c>
-      <c r="B85">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>44104</v>
-      </c>
-      <c r="B86">
-        <v>-0.60099999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>44134</v>
-      </c>
-      <c r="B87">
-        <v>-0.71299999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B88">
-        <v>-0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B89">
-        <v>-0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>44225</v>
-      </c>
-      <c r="B90">
-        <v>-0.625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>44253</v>
-      </c>
-      <c r="B91">
-        <v>-0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B92">
-        <v>-0.65600000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>44316</v>
-      </c>
-      <c r="B93">
-        <v>-0.60099999999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>44347</v>
-      </c>
-      <c r="B94">
-        <v>-0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>44377</v>
-      </c>
-      <c r="B95">
-        <v>-0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>44407</v>
-      </c>
-      <c r="B96">
-        <v>-0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>44439</v>
-      </c>
-      <c r="B97">
-        <v>-0.66800000000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B98">
-        <v>-0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>44498</v>
-      </c>
-      <c r="B99">
-        <v>-0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>44530</v>
-      </c>
-      <c r="B100">
-        <v>-0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B101">
-        <v>-0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>44592</v>
-      </c>
-      <c r="B102">
-        <v>-0.65800000000000003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>44620</v>
-      </c>
-      <c r="B103">
-        <v>-0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>44651</v>
-      </c>
-      <c r="B104">
-        <v>-0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B105">
-        <v>-0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>44712</v>
-      </c>
-      <c r="B106">
-        <v>-0.505</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>44742</v>
-      </c>
-      <c r="B107">
-        <v>-0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>44771</v>
-      </c>
-      <c r="B108">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>44804</v>
-      </c>
-      <c r="B109">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B110">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>44865</v>
-      </c>
-      <c r="B111">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>44895</v>
-      </c>
-      <c r="B112">
-        <v>1.5529999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B113">
-        <v>1.9279999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>44957</v>
-      </c>
-      <c r="B114">
-        <v>2.222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>44985</v>
-      </c>
-      <c r="B115">
-        <v>2.6869999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B116">
-        <v>2.7229999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>45044</v>
-      </c>
-      <c r="B117">
-        <v>2.653</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>45077</v>
-      </c>
-      <c r="B118">
-        <v>2.9350000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>45107</v>
-      </c>
-      <c r="B119">
-        <v>3.367</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>45138</v>
-      </c>
-      <c r="B120">
-        <v>3.5449999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>45169</v>
-      </c>
-      <c r="B121">
-        <v>3.6520000000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>45198</v>
-      </c>
-      <c r="B122">
-        <v>3.6480000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="REFI_OFFICE_FUNCTION_DATA" r:id="rId1"/>
-  </customProperties>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>